--- a/231207/10월 월간 메뉴표.xlsx
+++ b/231207/10월 월간 메뉴표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhyukoh/Documents/Personal Tutor/sy0403/231201/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhyukoh/Documents/Personal Tutor/sy0403/231207/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD54C4-5E01-F24B-91C6-84B241D2268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0293936E-CF0E-F64A-93FF-392140ECD20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="600" windowWidth="26240" windowHeight="15020" activeTab="1" xr2:uid="{11373602-D964-4A5C-B835-771C417587AD}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="15020" xr2:uid="{11373602-D964-4A5C-B835-771C417587AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1304,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1577,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22FF4C7-F3A9-F841-B486-20B5F3A56A8A}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1667,228 +1667,157 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22">
-        <v>6600</v>
-      </c>
-      <c r="D7" s="22">
-        <v>9900</v>
-      </c>
-      <c r="E7" s="22">
-        <v>9800</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="64">
-      <c r="A8" s="25" t="s">
+    <row r="7" spans="1:6" ht="64">
+      <c r="A7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C7" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="140">
-      <c r="A9" s="27" t="s">
+    <row r="8" spans="1:6" ht="140">
+      <c r="A8" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75">
-      <c r="A10" s="27">
-        <v>10500</v>
-      </c>
-      <c r="B10" s="22">
-        <v>8900</v>
-      </c>
-      <c r="C10" s="22">
-        <v>7900</v>
-      </c>
-      <c r="D10" s="22">
-        <v>8200</v>
-      </c>
-      <c r="E10" s="27">
-        <v>8000</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>54</v>
-      </c>
+    <row r="9" spans="1:6" ht="56">
+      <c r="A9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="165">
+      <c r="A10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="56">
-      <c r="A11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="165">
-      <c r="A12" s="22" t="s">
-        <v>86</v>
+      <c r="A12" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="32">
-      <c r="A13" s="22">
-        <v>8900</v>
-      </c>
-      <c r="B13" s="22">
-        <v>8600</v>
-      </c>
-      <c r="C13" s="22">
-        <v>11900</v>
-      </c>
-      <c r="D13" s="22">
-        <v>7400</v>
-      </c>
-      <c r="E13" s="22">
-        <v>8000</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="56">
-      <c r="A14" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="165">
-      <c r="A15" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="32">
-      <c r="A16" s="22">
-        <v>9000</v>
-      </c>
-      <c r="B16" s="22">
-        <v>8500</v>
-      </c>
-      <c r="C16" s="23">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="24">
-        <v>8900</v>
-      </c>
-      <c r="E16" s="28">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="56">
-      <c r="A17" s="26" t="s">
+    <row r="13" spans="1:6" ht="56">
+      <c r="A13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E13" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="150">
-      <c r="A18" s="22" t="s">
+    <row r="14" spans="1:6" ht="150">
+      <c r="A14" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B14" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E14" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="28"/>
+    <row r="15" spans="1:6" ht="32">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1904,10 +1833,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E19" sqref="A5:E19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1986,101 +1915,103 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22">
-        <v>6600</v>
-      </c>
-      <c r="D7" s="22">
-        <v>9900</v>
-      </c>
-      <c r="E7" s="22">
-        <v>9800</v>
+      <c r="A7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>69</v>
+      <c r="A8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>85</v>
+      <c r="A9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A10" s="27">
-        <v>10500</v>
-      </c>
-      <c r="B10" s="22">
-        <v>8900</v>
-      </c>
-      <c r="C10" s="22">
-        <v>7900</v>
-      </c>
-      <c r="D10" s="22">
-        <v>8200</v>
-      </c>
-      <c r="E10" s="27">
-        <v>8000</v>
+      <c r="A10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>74</v>
+      <c r="A11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>86</v>
+      <c r="A12" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -2089,20 +2020,20 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A13" s="22">
-        <v>8900</v>
-      </c>
-      <c r="B13" s="22">
-        <v>8600</v>
-      </c>
-      <c r="C13" s="22">
-        <v>11900</v>
-      </c>
-      <c r="D13" s="22">
-        <v>7400</v>
-      </c>
-      <c r="E13" s="22">
-        <v>8000</v>
+      <c r="A13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -2111,135 +2042,55 @@
       <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>78</v>
+      <c r="A14" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23" t="s">
-        <v>105</v>
-      </c>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A16" s="22">
-        <v>9000</v>
-      </c>
-      <c r="B16" s="22">
-        <v>8500</v>
-      </c>
-      <c r="C16" s="23">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="24">
-        <v>8900</v>
-      </c>
-      <c r="E16" s="28">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="A16" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="5:7" ht="30" customHeight="1">
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="60" customHeight="1">
       <c r="G18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A19" s="31">
-        <v>10000</v>
-      </c>
-      <c r="B19" s="32">
-        <v>8900</v>
-      </c>
-      <c r="C19" s="33">
-        <v>6200</v>
-      </c>
-      <c r="D19" s="32">
-        <v>6000</v>
-      </c>
-      <c r="E19" s="28">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    <row r="19" spans="5:7" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
